--- a/Pride Month Calendar.xlsx
+++ b/Pride Month Calendar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25310"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25321"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicoschreder\Development\powerapppridemonthcalendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9299BF06-E50B-45D3-AE75-096EA9F9B2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33A01F9-F610-4518-9A9F-2AEF4AA54AC2}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{36ACBFC6-48A0-4CD7-B10E-9675CF43A6CD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{36ACBFC6-48A0-4CD7-B10E-9675CF43A6CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="94">
   <si>
     <t>Title</t>
   </si>
@@ -62,15 +62,24 @@
     <t>Image</t>
   </si>
   <si>
+    <t>https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/1.PNG</t>
+  </si>
+  <si>
     <t>Pride Month in other countries</t>
   </si>
   <si>
     <t>Introduction Pride Flag</t>
   </si>
   <si>
+    <t>https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/4.PNG</t>
+  </si>
+  <si>
     <t>Pride/CSD Dates Germany</t>
   </si>
   <si>
+    <t>https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/5.PNG</t>
+  </si>
+  <si>
     <t>Show your pride with wallpapers and other resources</t>
   </si>
   <si>
@@ -83,37 +92,55 @@
     <t>Introduction: "L" + Flag</t>
   </si>
   <si>
-    <t>LGBTQIA+ Media</t>
+    <t>https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/9.PNG</t>
   </si>
   <si>
     <t>Introduction: "G" + Flag</t>
   </si>
   <si>
+    <t>https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/11.PNG</t>
+  </si>
+  <si>
     <t>Pulse Remembrance Day</t>
   </si>
   <si>
     <t>Queer History in Germany</t>
   </si>
   <si>
+    <t>https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/13.PNG</t>
+  </si>
+  <si>
     <t>Introduction: "B" + Flag</t>
   </si>
   <si>
+    <t>https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/14.PNG</t>
+  </si>
+  <si>
     <t>Pronouns and the usage in Microsoft products</t>
   </si>
   <si>
+    <t>https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/15.PNG</t>
+  </si>
+  <si>
     <t>Give with BING</t>
   </si>
   <si>
     <t>Introduction: "T" + Flag</t>
   </si>
   <si>
-    <t>Autistic Pride Day</t>
+    <t>https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/17.PNG</t>
+  </si>
+  <si>
+    <t>https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/18.PNG</t>
   </si>
   <si>
     <t>Introduction: "Q" + Flag</t>
   </si>
   <si>
-    <t>LGBTQIA+ in Germany</t>
+    <t>https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/19.PNG</t>
+  </si>
+  <si>
+    <t>https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/20.PNG</t>
   </si>
   <si>
     <t>Inclusive Microsoft products</t>
@@ -128,9 +155,6 @@
     <t>Introduction: "A" + Flag</t>
   </si>
   <si>
-    <t>LGBTQIA+ Quiz</t>
-  </si>
-  <si>
     <t>National HIV Testing Day</t>
   </si>
   <si>
@@ -152,97 +176,58 @@
     <t>Video</t>
   </si>
   <si>
-    <t>6/1/2022</t>
-  </si>
-  <si>
-    <t>6/2/2022</t>
-  </si>
-  <si>
-    <t>6/3/2022</t>
-  </si>
-  <si>
-    <t>6/4/2022</t>
-  </si>
-  <si>
-    <t>6/5/2022</t>
-  </si>
-  <si>
-    <t>6/6/2022</t>
-  </si>
-  <si>
-    <t>6/7/2022</t>
-  </si>
-  <si>
-    <t>6/8/2022</t>
-  </si>
-  <si>
-    <t>6/9/2022</t>
-  </si>
-  <si>
-    <t>6/10/2022</t>
-  </si>
-  <si>
-    <t>6/11/2022</t>
-  </si>
-  <si>
-    <t>6/12/2022</t>
-  </si>
-  <si>
-    <t>6/13/2022</t>
-  </si>
-  <si>
-    <t>6/14/2022</t>
-  </si>
-  <si>
-    <t>6/15/2022</t>
-  </si>
-  <si>
-    <t>6/16/2022</t>
-  </si>
-  <si>
-    <t>6/17/2022</t>
-  </si>
-  <si>
-    <t>6/18/2022</t>
-  </si>
-  <si>
-    <t>6/19/2022</t>
-  </si>
-  <si>
-    <t>6/20/2022</t>
-  </si>
-  <si>
-    <t>6/21/2022</t>
-  </si>
-  <si>
-    <t>6/22/2022</t>
-  </si>
-  <si>
-    <t>6/23/2022</t>
-  </si>
-  <si>
-    <t>6/24/2022</t>
-  </si>
-  <si>
-    <t>6/25/2022</t>
-  </si>
-  <si>
-    <t>6/26/2022</t>
-  </si>
-  <si>
-    <t>6/27/2022</t>
-  </si>
-  <si>
-    <t>6/28/2022</t>
-  </si>
-  <si>
-    <t>6/29/2022</t>
-  </si>
-  <si>
-    <t>6/30/2022</t>
-  </si>
-  <si>
     <t>D&amp;I @ Microsoft</t>
+  </si>
+  <si>
+    <t>Sexual vs. gender identity</t>
+  </si>
+  <si>
+    <t>https://outrightinternational.org/PrideBrief#:~:text=102%20countries%20around%20the%20world%20host%20some%20form,Saint%20Lucia%20and%20Bosnia%20and%20Herzegovina%20in%202019%29%3B</t>
+  </si>
+  <si>
+    <t>https://www.lsvd.de/de/ct/3168-Was-denkt-man-in-Deutschland-ueber-Lesben-Schwule-bisexuelle-trans-und-intergeschlechtliche-Menschen</t>
+  </si>
+  <si>
+    <t>https://onepulsefoundation.org/onepulse-foundation-memorial/?msclkid=ad05d94fcfa111ec82275e022c9db301</t>
+  </si>
+  <si>
+    <t>https://www.stuttgarter-zeitung.de/inhalt.lgbt-buecher-mhsd.187135b4-e8e8-4ff6-be6e-397b0539bfaa.html</t>
+  </si>
+  <si>
+    <t>https://www.aidshilfe.de/hiv-test#:~:text=Einen%20HIV%2DTest%20kann%20man,Hause%20auf%20HIV%20zu%20testen.</t>
+  </si>
+  <si>
+    <t>https://query.prod.cms.rt.microsoft.com/cms/api/am/binary/RWF4XA</t>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/en-us/pride</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/learning/paths/diversity-inclusion-and-belonging-for-all?accountId=3322&amp;u=3322&amp;success=true&amp;authUUID=fXnl7GBaTo2f6DZHC5IFuA%3D%3D</t>
+  </si>
+  <si>
+    <t>25 LGBTQIA+ Movies to Watch</t>
+  </si>
+  <si>
+    <t>Pride Playlist</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/playlist/6m044n8wYzaKq5nDVW0iKX</t>
+  </si>
+  <si>
+    <t>https://www.teenvogue.com/gallery/best-lgbtq-movies-to-watch#:~:text=%20The%2025%20Best%20LGBTQ%20Movies%20to%20Watch,Your%20Name%20%282017%29%2017%20Carol%20%282015%29%20More%20?msclkid=02b68a09cf9a11eca9b7a2bacd74c6f8</t>
+  </si>
+  <si>
+    <t>Podcasts</t>
+  </si>
+  <si>
+    <t>https://www.bing.com/give/</t>
+  </si>
+  <si>
+    <t>LGBTQIA+ organizations in Germany</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Portal:Homo-_und_Bisexualit%C3%A4t/Themenliste/Liste_von_LGBT-Organisationen#Deutschland</t>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/nschreder/powerapppridemonthcalendar/main/Images/1.jpg</t>
@@ -339,7 +324,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,12 +336,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -383,12 +362,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -739,18 +717,20 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="B2" sqref="B2:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="48.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
-    <col min="3" max="3" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="85.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.53125" customWidth="1"/>
+    <col min="2" max="2" width="12.73046875" customWidth="1"/>
+    <col min="3" max="3" width="7.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.73046875" customWidth="1"/>
+    <col min="5" max="5" width="17.796875" customWidth="1"/>
+    <col min="6" max="6" width="89.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -770,707 +750,696 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2">
+        <v>44621</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44622</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44623</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44624</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44625</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44623</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44627</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44628</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44629</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44630</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44631</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44632</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44633</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44634</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44635</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44633</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44637</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44638</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44639</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44640</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44641</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44642</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44643</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="B25" s="2">
+        <v>44644</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44645</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="B27" s="2">
+        <v>44643</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="B28" s="2">
+        <v>44647</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="B29" s="2">
+        <v>44648</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="B30" s="2">
+        <v>44649</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="B31" s="2">
+        <v>44650</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>98</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{83A89989-3ACE-4803-A65D-9F84C44526AE}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{6A3ED20B-0FB0-4AD6-92E7-BBC089D800E2}"/>
-    <hyperlink ref="D6:D21" r:id="rId3" display="https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/4.PNG" xr:uid="{27DA9967-95C7-40D3-B3CE-266C36A99360}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{E83DA674-40B6-44C9-92D1-B78A5A37947B}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{F2AE2A3F-A6C0-4C4D-92D2-AAAB02021423}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{97FBE4F9-5317-4E9F-9E75-C75FC49CAE79}"/>
-    <hyperlink ref="D9" r:id="rId7" xr:uid="{66D2C054-0D57-4A0C-B8CA-0B7E550D8C8F}"/>
-    <hyperlink ref="D10" r:id="rId8" xr:uid="{4C10794A-1F22-4278-9B89-98F4838A0386}"/>
-    <hyperlink ref="D11" r:id="rId9" xr:uid="{9664B644-FC1F-4002-A5DF-682196FF7C61}"/>
-    <hyperlink ref="D12" r:id="rId10" xr:uid="{A631E6C3-D5E4-4D62-9A17-A7DC83460ADC}"/>
-    <hyperlink ref="D13" r:id="rId11" xr:uid="{AD03D51E-B7F7-4360-A304-1B6AB5DC461A}"/>
-    <hyperlink ref="D14" r:id="rId12" xr:uid="{66A20D8F-3587-4962-A9E1-844B63960159}"/>
-    <hyperlink ref="D15" r:id="rId13" xr:uid="{544C589B-6002-4733-B69D-ED153A498D96}"/>
-    <hyperlink ref="D16" r:id="rId14" xr:uid="{51F7EC2C-2A4A-4533-8627-C99F7E441209}"/>
-    <hyperlink ref="D17" r:id="rId15" xr:uid="{68A1F7C9-42BE-4D1D-BFAF-0E3C678FE5F2}"/>
-    <hyperlink ref="D18" r:id="rId16" xr:uid="{CF51DFB8-F2B5-467A-B4CB-4D833400DAF6}"/>
-    <hyperlink ref="D19" r:id="rId17" xr:uid="{61632441-0F7B-4C1A-AFB4-1D4B5993FFC2}"/>
-    <hyperlink ref="D20" r:id="rId18" xr:uid="{F08B2E4A-259C-4601-AD47-2DC9D000EED0}"/>
-    <hyperlink ref="D21" r:id="rId19" xr:uid="{50D5EAE5-6E8F-4587-95CB-527FBDF7CC12}"/>
-    <hyperlink ref="D22" r:id="rId20" xr:uid="{5B45379A-1432-4CF6-9CC2-93ABA4FA683F}"/>
-    <hyperlink ref="D23" r:id="rId21" xr:uid="{88B89E08-0CF3-4B6A-8671-343F75F0C9EA}"/>
-    <hyperlink ref="D24" r:id="rId22" xr:uid="{8767C1ED-4E9A-4F3B-B87F-BF67B6882EC5}"/>
-    <hyperlink ref="D25" r:id="rId23" xr:uid="{297DB920-0260-4019-ABE1-D76B5B26614A}"/>
-    <hyperlink ref="D26" r:id="rId24" xr:uid="{B5E0A783-FEAE-4F29-8D29-3A85528B9797}"/>
-    <hyperlink ref="D27" r:id="rId25" xr:uid="{11C473AE-DE6A-46C4-A60A-9A75CEF224B8}"/>
-    <hyperlink ref="D28" r:id="rId26" xr:uid="{D4EBC73A-7480-46C3-854F-71CE52AF0E3D}"/>
-    <hyperlink ref="D29" r:id="rId27" xr:uid="{DB64F564-9C90-49EF-B751-248E54062163}"/>
-    <hyperlink ref="D30" r:id="rId28" xr:uid="{70ECE0B8-0C2C-4F18-AC47-7EA006614A83}"/>
-    <hyperlink ref="D31" r:id="rId29" xr:uid="{F11D43D8-666F-4AA3-A98B-7320B5FC0BCD}"/>
-    <hyperlink ref="D2" r:id="rId30" xr:uid="{475F2555-F248-45EA-8939-FBE6BD6690A1}"/>
-    <hyperlink ref="D3" r:id="rId31" xr:uid="{D39284B3-5842-4809-9BC4-FFE592F40D04}"/>
-    <hyperlink ref="E4" r:id="rId32" xr:uid="{A2B9771D-4FF2-4EC3-BC91-5E3B4F7EB52F}"/>
-    <hyperlink ref="E5" r:id="rId33" xr:uid="{4D78280D-417E-4C27-A80A-90FDA07E03B0}"/>
-    <hyperlink ref="E6:E21" r:id="rId34" display="https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/4.PNG" xr:uid="{0517B646-5EAA-4113-AC0A-BBF1AF40AF13}"/>
-    <hyperlink ref="E6" r:id="rId35" xr:uid="{68682028-9288-4141-B17A-B0AFA1BDC47C}"/>
-    <hyperlink ref="E7" r:id="rId36" xr:uid="{A0EF0FAC-2486-4AF9-8F02-EEA7883805C8}"/>
-    <hyperlink ref="E8" r:id="rId37" xr:uid="{AD0CE485-A101-4512-BFB5-83D20F27F5F0}"/>
-    <hyperlink ref="E9" r:id="rId38" xr:uid="{75FF3ACD-A83F-44D0-A2D3-805C138E77B1}"/>
-    <hyperlink ref="E10" r:id="rId39" xr:uid="{9EC0B806-30EE-4160-94F2-A2D89FDC9C36}"/>
-    <hyperlink ref="E11" r:id="rId40" xr:uid="{81210C00-5354-4FB1-9DDB-6FC4CF9EF485}"/>
-    <hyperlink ref="E12" r:id="rId41" xr:uid="{90837EF3-BD91-4828-897D-8BC939C12329}"/>
-    <hyperlink ref="E13" r:id="rId42" xr:uid="{D4443A2D-3408-41A0-B5D1-265463FBFD95}"/>
-    <hyperlink ref="E14" r:id="rId43" xr:uid="{D7031590-9350-4187-A77D-35F88B397C95}"/>
-    <hyperlink ref="E15" r:id="rId44" xr:uid="{7253E4FF-05F4-4585-B0C6-306CA2CB7AF3}"/>
-    <hyperlink ref="E16" r:id="rId45" xr:uid="{7166E079-1019-4B6C-8602-10E0E7985293}"/>
-    <hyperlink ref="E17" r:id="rId46" xr:uid="{12F4D52B-91BC-4323-9802-E6D19A34B521}"/>
-    <hyperlink ref="E18" r:id="rId47" xr:uid="{D16D2055-3B53-4CF4-9C32-3345E2249944}"/>
-    <hyperlink ref="E19" r:id="rId48" xr:uid="{FFB14A70-7852-4270-A802-ADEC288BBDD0}"/>
-    <hyperlink ref="E20" r:id="rId49" xr:uid="{9E429592-CD5A-4D76-829A-6D7E8AF8BA32}"/>
-    <hyperlink ref="E21" r:id="rId50" xr:uid="{C8368C55-EBB1-4C59-9B95-1AF24EAD20C0}"/>
-    <hyperlink ref="E22" r:id="rId51" xr:uid="{C95778C2-953A-4CD6-8279-479BE4C56EE8}"/>
-    <hyperlink ref="E23" r:id="rId52" xr:uid="{4957EDFB-01C9-4848-A19A-E30EA38C5294}"/>
-    <hyperlink ref="E24" r:id="rId53" xr:uid="{DB021C9B-140F-4793-AFA1-B24691E1D5D5}"/>
-    <hyperlink ref="E25" r:id="rId54" xr:uid="{6721C6C0-4FE9-4147-9938-48C41AE93630}"/>
-    <hyperlink ref="E26" r:id="rId55" xr:uid="{C9641660-CA85-4665-BB00-2A1160984C2D}"/>
-    <hyperlink ref="E27" r:id="rId56" xr:uid="{C1B89FF8-C3FF-46B8-A40A-1D3CFEC678A1}"/>
-    <hyperlink ref="E28" r:id="rId57" xr:uid="{9E143F8F-7DEE-4AD6-9E72-C5B275867963}"/>
-    <hyperlink ref="E29" r:id="rId58" xr:uid="{250C05D2-4330-44A1-A2E9-5EE69F985240}"/>
-    <hyperlink ref="E30" r:id="rId59" xr:uid="{4392E6D8-1AF3-4504-8915-DE4C06DF99DA}"/>
-    <hyperlink ref="E31" r:id="rId60" xr:uid="{00BCBBC0-A939-40B9-99ED-945F4544C636}"/>
-    <hyperlink ref="E2" r:id="rId61" xr:uid="{BADF3944-A8B7-4080-A32F-2886A93B1CE3}"/>
-    <hyperlink ref="E3" r:id="rId62" xr:uid="{7BB305EE-4814-4232-B3FF-3A1B4F850AF6}"/>
-    <hyperlink ref="F4" r:id="rId63" xr:uid="{8F040CDE-CC02-4EC4-85EA-3A18E33CF2FB}"/>
-    <hyperlink ref="F5" r:id="rId64" xr:uid="{269769B5-87C7-4DCC-B855-216C46607F64}"/>
-    <hyperlink ref="F6:F21" r:id="rId65" display="https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/4.PNG" xr:uid="{E02B6E5D-6172-48DD-BB37-58F019770FCB}"/>
-    <hyperlink ref="F6" r:id="rId66" xr:uid="{374D1A8C-6CB3-4375-9913-FF99CB299DB4}"/>
-    <hyperlink ref="F7" r:id="rId67" xr:uid="{EF7C5F12-8C2C-4F1D-8373-35C17E8F7408}"/>
-    <hyperlink ref="F8" r:id="rId68" xr:uid="{10042F50-672B-476F-88BF-8159D24494B9}"/>
-    <hyperlink ref="F9" r:id="rId69" xr:uid="{25461EF5-2424-468F-8CC8-6A1D2B2FF78B}"/>
-    <hyperlink ref="F10" r:id="rId70" xr:uid="{75AD8EC8-0EE0-41C1-9BF3-F7C663D55BD4}"/>
-    <hyperlink ref="F11" r:id="rId71" xr:uid="{43B5B5AE-D876-434F-BEE1-A62A320FFADD}"/>
-    <hyperlink ref="F12" r:id="rId72" xr:uid="{7E87015F-CC70-462E-B5EF-995CF483DABD}"/>
-    <hyperlink ref="F13" r:id="rId73" xr:uid="{D073AD66-7443-4985-BC6D-736797E25976}"/>
-    <hyperlink ref="F14" r:id="rId74" xr:uid="{1BF9E776-C935-405E-A169-382BECA63E6D}"/>
-    <hyperlink ref="F15" r:id="rId75" xr:uid="{6FACB195-5C08-48A1-B8DC-0E26FF398BB0}"/>
-    <hyperlink ref="F16" r:id="rId76" xr:uid="{89B8F2F6-42A1-49F0-BA9B-7C7BE2DC8427}"/>
-    <hyperlink ref="F17" r:id="rId77" xr:uid="{A35CA73E-E102-4498-A00A-6F65528D911C}"/>
-    <hyperlink ref="F18" r:id="rId78" xr:uid="{C4C0A1EE-F5BE-4936-B884-0377BC9CA66F}"/>
-    <hyperlink ref="F19" r:id="rId79" xr:uid="{54EB0A18-00CD-4E7D-84DB-610C3E4AA9EC}"/>
-    <hyperlink ref="F20" r:id="rId80" xr:uid="{A7F66705-17E3-4E42-8236-417EFD96D61A}"/>
-    <hyperlink ref="F21" r:id="rId81" xr:uid="{F4889973-335A-4F5B-887F-D373A33AE819}"/>
-    <hyperlink ref="F22" r:id="rId82" xr:uid="{C84E9B25-7A87-417E-862A-1BC9D43A4AD0}"/>
-    <hyperlink ref="F23" r:id="rId83" xr:uid="{0A391A01-16D6-45F4-9F58-1E4E474A1F95}"/>
-    <hyperlink ref="F24" r:id="rId84" xr:uid="{5B0140A8-1EB1-42C7-BEB8-9FA892F97F75}"/>
-    <hyperlink ref="F25" r:id="rId85" xr:uid="{6D939318-D74A-4FC7-ADFA-DA692CFCB47C}"/>
-    <hyperlink ref="F26" r:id="rId86" xr:uid="{6C7E354E-B551-45E2-8DB3-4B2EC829B203}"/>
-    <hyperlink ref="F27" r:id="rId87" xr:uid="{CE1BE2FD-A3FE-4401-8417-F465E0C94491}"/>
-    <hyperlink ref="F28" r:id="rId88" xr:uid="{E53EC492-759B-4AB6-AC27-85955C4C7AE4}"/>
-    <hyperlink ref="F29" r:id="rId89" xr:uid="{3C329B2C-012D-40D1-BFD1-45C095819A7B}"/>
-    <hyperlink ref="F30" r:id="rId90" xr:uid="{7305A9DB-2EB6-4DBC-88F2-A84D66CAB7A5}"/>
-    <hyperlink ref="F31" r:id="rId91" xr:uid="{3300B627-8C38-4B25-A439-403A26E82C0A}"/>
-    <hyperlink ref="F2" r:id="rId92" xr:uid="{FBEBD1A1-CC5D-4152-96EB-CBEE3085AC29}"/>
-    <hyperlink ref="F3" r:id="rId93" xr:uid="{CE18E67C-1A64-4F47-A89C-E5DFF9C4CBE8}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{4C139AD8-D4C1-4988-A313-F84525B2A4E8}"/>
+    <hyperlink ref="E4" r:id="rId2" location=":~:text=102%20countries%20around%20the%20world%20host%20some%20form,Saint%20Lucia%20and%20Bosnia%20and%20Herzegovina%20in%202019%29%3B" xr:uid="{761B069A-D5B5-41CE-866E-24A299AD57D6}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{93D4755F-7AD8-4E39-9A53-26AC0C825751}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{1C8214ED-8C55-4E41-B46C-D8692319FDF2}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{B3DF4949-E759-4050-B097-51FBE402D46D}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{DC1C1D8E-E833-416A-A65F-F0A31726BA39}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{94A6382F-7227-4E3D-B61D-FE95F9BDC165}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{0CFF751E-BE17-4560-8B85-61644B42CC11}"/>
+    <hyperlink ref="E12" r:id="rId9" xr:uid="{0137BE8F-CA59-42BF-BC2D-A6F69C0DD7E1}"/>
+    <hyperlink ref="E13" r:id="rId10" xr:uid="{949C88E3-8025-46F4-9749-AD5281AD1671}"/>
+    <hyperlink ref="E14" r:id="rId11" xr:uid="{56BBF8DD-0704-4B0C-9FEA-D260D24A4CCC}"/>
+    <hyperlink ref="E15" r:id="rId12" xr:uid="{90ED9381-10D8-4013-AA13-214120896EF5}"/>
+    <hyperlink ref="E16" r:id="rId13" xr:uid="{D93A9E12-B501-4795-9D81-DBFFBCD4BD0B}"/>
+    <hyperlink ref="E17" r:id="rId14" xr:uid="{C19848BB-E6A6-4878-B9E5-2FB94631D9A7}"/>
+    <hyperlink ref="E18" r:id="rId15" xr:uid="{CDBDE324-080D-42E8-B866-9F2C9763528D}"/>
+    <hyperlink ref="E19" r:id="rId16" xr:uid="{FFAFC038-E24E-4C32-8E60-7FBDDB1AE3A1}"/>
+    <hyperlink ref="E20" r:id="rId17" xr:uid="{E72790E3-D9B2-4BF3-90BB-116F2F3AD597}"/>
+    <hyperlink ref="E21" r:id="rId18" location="Deutschland" xr:uid="{2FFF4C75-A168-4D4D-A399-90551C36A9CA}"/>
+    <hyperlink ref="E24" r:id="rId19" xr:uid="{5A044E8D-27D7-4017-9B48-56F5DB9F6DC7}"/>
+    <hyperlink ref="E27" r:id="rId20" location=":~:text=Einen%20HIV%2DTest%20kann%20man,Hause%20auf%20HIV%20zu%20testen." xr:uid="{85D8D722-7D34-4013-B3DD-86B8A5B14142}"/>
+    <hyperlink ref="E30" r:id="rId21" xr:uid="{ABC8DD59-EAEE-4BA2-BFE5-4BBBCBD2C2E2}"/>
+    <hyperlink ref="E31" r:id="rId22" xr:uid="{5C7B62EB-47F1-4BEE-9306-96AEA9E46AA6}"/>
+    <hyperlink ref="E3" r:id="rId23" location=":~:text=%20The%2025%20Best%20LGBTQ%20Movies%20to%20Watch,Your%20Name%20%282017%29%2017%20Carol%20%282015%29%20More%20?msclkid=02b68a09cf9a11eca9b7a2bacd74c6f8" xr:uid="{8F1C3DEE-769C-4F20-A18E-0DB905D3D23B}"/>
+    <hyperlink ref="D4" r:id="rId24" xr:uid="{0633D38B-FBE2-458D-8687-763F20BC9E11}"/>
+    <hyperlink ref="D5" r:id="rId25" xr:uid="{920BD423-D595-4C7A-99DB-4ED859EC3FAC}"/>
+    <hyperlink ref="D6:D21" r:id="rId26" display="https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/4.PNG" xr:uid="{00AB9B79-9338-431B-80CB-AE920F339733}"/>
+    <hyperlink ref="D6" r:id="rId27" xr:uid="{33368F95-0B58-4052-9078-0F0880E8AA8A}"/>
+    <hyperlink ref="D7" r:id="rId28" xr:uid="{C6B9B43D-9101-4DA4-8A03-18328DDCDC79}"/>
+    <hyperlink ref="D8" r:id="rId29" xr:uid="{D7591158-1D81-4206-8A99-880F179C40CD}"/>
+    <hyperlink ref="D9" r:id="rId30" xr:uid="{3543EA17-9DB0-4B4B-B533-0B4270369479}"/>
+    <hyperlink ref="D10" r:id="rId31" xr:uid="{6A0C6A41-8F37-4F9F-8854-ED8BA56D39FF}"/>
+    <hyperlink ref="D11" r:id="rId32" xr:uid="{4047D296-7046-41FF-8C70-E8754B345525}"/>
+    <hyperlink ref="D12" r:id="rId33" xr:uid="{EA19EE3D-2B46-4D2F-B99F-055EF228B96D}"/>
+    <hyperlink ref="D13" r:id="rId34" xr:uid="{FBDD1E44-FBD9-423E-A4FB-BA3B5729AD4A}"/>
+    <hyperlink ref="D14" r:id="rId35" xr:uid="{9F000CBB-BC79-42F2-ACB7-B48FE18908D1}"/>
+    <hyperlink ref="D15" r:id="rId36" xr:uid="{77118C5C-C7B7-4E3D-B14A-D94DD0209DC0}"/>
+    <hyperlink ref="D16" r:id="rId37" xr:uid="{8AC754FD-A451-4F16-BCEA-CAAEA7D15EA0}"/>
+    <hyperlink ref="D17" r:id="rId38" xr:uid="{A1EF5952-9529-4863-8A07-6E64CCDE5CCD}"/>
+    <hyperlink ref="D18" r:id="rId39" xr:uid="{04858494-350B-4C92-9D80-A3FE6DA65972}"/>
+    <hyperlink ref="D19" r:id="rId40" xr:uid="{C0853E02-2826-4564-BD0F-4EEFA80854F6}"/>
+    <hyperlink ref="D20" r:id="rId41" xr:uid="{1804EA40-BAEA-496B-97AE-F4F4290ABD30}"/>
+    <hyperlink ref="D21" r:id="rId42" xr:uid="{7E80A043-67B1-474C-9133-34EEFB1CD3BD}"/>
+    <hyperlink ref="D22" r:id="rId43" xr:uid="{2721A29C-AA92-4935-B6F5-A5FAF43D3E35}"/>
+    <hyperlink ref="D23" r:id="rId44" xr:uid="{C52DA232-5493-4AAB-B679-0BF6D95652C2}"/>
+    <hyperlink ref="D24" r:id="rId45" xr:uid="{7BEB2861-9DA9-4D8D-815F-31E2C370CEB5}"/>
+    <hyperlink ref="D25" r:id="rId46" xr:uid="{EF2F18D1-737A-4F09-B8D9-74C32CC689C0}"/>
+    <hyperlink ref="D26" r:id="rId47" xr:uid="{C348B57C-2050-455C-BA73-40AD7AB18C4C}"/>
+    <hyperlink ref="D27" r:id="rId48" xr:uid="{E29DABD4-59C9-40E9-B552-AA1F74F91E0C}"/>
+    <hyperlink ref="D28" r:id="rId49" xr:uid="{948A40A0-DC3F-4658-9609-A18612FEAA12}"/>
+    <hyperlink ref="D29" r:id="rId50" xr:uid="{2CE8DA05-04A9-47A6-A885-354D5A74E7F8}"/>
+    <hyperlink ref="D30" r:id="rId51" xr:uid="{450300FF-8542-403B-AAF2-C3D3231B598C}"/>
+    <hyperlink ref="D31" r:id="rId52" xr:uid="{4111B2CB-BC57-4119-B45C-3E1C7EAB67F9}"/>
+    <hyperlink ref="D2" r:id="rId53" xr:uid="{89C1855B-BB31-4B17-8355-3579B9DD684F}"/>
+    <hyperlink ref="D3" r:id="rId54" xr:uid="{21975645-24AF-45F0-AB59-3634DCD48056}"/>
+    <hyperlink ref="F4" r:id="rId55" xr:uid="{496E7F88-96B1-4147-B43D-4D7491F56D5F}"/>
+    <hyperlink ref="F5" r:id="rId56" xr:uid="{11D40297-07CE-475A-B67D-8B14E6762E8E}"/>
+    <hyperlink ref="F6:F21" r:id="rId57" display="https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/4.PNG" xr:uid="{724BF000-2DE3-4FC2-9FD3-ACB0ABD03298}"/>
+    <hyperlink ref="F6" r:id="rId58" xr:uid="{41D7D1FB-37BA-4CD3-BC65-7CC0D65C8A4A}"/>
+    <hyperlink ref="F7" r:id="rId59" xr:uid="{DE37D346-189D-4D23-B6E9-D380217D912E}"/>
+    <hyperlink ref="F8" r:id="rId60" xr:uid="{B45D774C-C79D-4C2E-8050-71A8713F4736}"/>
+    <hyperlink ref="F9" r:id="rId61" xr:uid="{FA0D1F5F-5E14-45B6-B9AF-10045E849D46}"/>
+    <hyperlink ref="F10" r:id="rId62" xr:uid="{952112B5-FDD1-461F-B2CC-E29C3C2BB15C}"/>
+    <hyperlink ref="F11" r:id="rId63" xr:uid="{C954956B-9BB8-4E0A-804A-F00E1062B564}"/>
+    <hyperlink ref="F12" r:id="rId64" xr:uid="{79BF186B-AD69-429D-AF4E-C7FB78BEC4C6}"/>
+    <hyperlink ref="F13" r:id="rId65" xr:uid="{6E88D440-DF3D-4DB3-A441-17F4F4FE62E5}"/>
+    <hyperlink ref="F14" r:id="rId66" xr:uid="{1DBC9D38-D936-44A4-AE08-7B2048329155}"/>
+    <hyperlink ref="F15" r:id="rId67" xr:uid="{2B4522B2-94A8-4888-933F-68612D3661E2}"/>
+    <hyperlink ref="F16" r:id="rId68" xr:uid="{DDE55F1A-86B7-4163-A36A-13CD61E19E1C}"/>
+    <hyperlink ref="F17" r:id="rId69" xr:uid="{8E70B8C3-58B6-4650-9BEF-E49B7661F464}"/>
+    <hyperlink ref="F18" r:id="rId70" xr:uid="{EB77B22F-543A-49FF-9880-D7628CB3440B}"/>
+    <hyperlink ref="F19" r:id="rId71" xr:uid="{F27A2621-4AD6-489A-B2DB-E477568C009D}"/>
+    <hyperlink ref="F20" r:id="rId72" xr:uid="{C60C135F-50F1-4CD7-8F6B-E7B3C8E731A1}"/>
+    <hyperlink ref="F21" r:id="rId73" xr:uid="{DA3B959B-B2A3-4E1E-A549-042A82304864}"/>
+    <hyperlink ref="F22" r:id="rId74" xr:uid="{986F8DE0-FDBA-425C-ADF4-4BCD64952026}"/>
+    <hyperlink ref="F23" r:id="rId75" xr:uid="{0D51F3D4-D8EA-4F04-961B-2A3F38A4F04D}"/>
+    <hyperlink ref="F24" r:id="rId76" xr:uid="{498CFB01-B8D1-493B-BCF2-627138CE1F1F}"/>
+    <hyperlink ref="F25" r:id="rId77" xr:uid="{79643163-43FB-4B83-9261-E0D3599A0BB2}"/>
+    <hyperlink ref="F26" r:id="rId78" xr:uid="{4833A1D0-F34B-40D6-A990-ADA622CA1618}"/>
+    <hyperlink ref="F27" r:id="rId79" xr:uid="{23AF4A96-B7C6-438D-9EAD-FD63B3F78D80}"/>
+    <hyperlink ref="F28" r:id="rId80" xr:uid="{6CC19B28-639B-4315-A872-2E3AA071D810}"/>
+    <hyperlink ref="F29" r:id="rId81" xr:uid="{6B08D457-EFDE-45AF-85C6-9F05EFF3008D}"/>
+    <hyperlink ref="F30" r:id="rId82" xr:uid="{E95D5EE8-054E-42BC-A09E-D14A4ACD1C03}"/>
+    <hyperlink ref="F31" r:id="rId83" xr:uid="{86E45AF7-691E-4C51-A1B7-0CD9A35A5D21}"/>
+    <hyperlink ref="F2" r:id="rId84" xr:uid="{AF722A97-299F-4BCB-89DF-56062DCEF2C7}"/>
+    <hyperlink ref="F3" r:id="rId85" xr:uid="{6397A8C6-ED72-4EE5-AFC2-F82C8B9CC7C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId94"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId86"/>
   <tableParts count="1">
-    <tablePart r:id="rId95"/>
+    <tablePart r:id="rId87"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1495,34 +1464,34 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" customWidth="1"/>
+    <col min="1" max="1" width="10.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Pride Month Calendar.xlsx
+++ b/Pride Month Calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicoschreder\Development\powerapppridemonthcalendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33A01F9-F610-4518-9A9F-2AEF4AA54AC2}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF13E653-9E91-417A-A658-9369557B6841}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{36ACBFC6-48A0-4CD7-B10E-9675CF43A6CD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="112">
   <si>
     <t>Title</t>
   </si>
@@ -62,24 +62,15 @@
     <t>Image</t>
   </si>
   <si>
-    <t>https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/1.PNG</t>
-  </si>
-  <si>
     <t>Pride Month in other countries</t>
   </si>
   <si>
     <t>Introduction Pride Flag</t>
   </si>
   <si>
-    <t>https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/4.PNG</t>
-  </si>
-  <si>
     <t>Pride/CSD Dates Germany</t>
   </si>
   <si>
-    <t>https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/5.PNG</t>
-  </si>
-  <si>
     <t>Show your pride with wallpapers and other resources</t>
   </si>
   <si>
@@ -92,57 +83,30 @@
     <t>Introduction: "L" + Flag</t>
   </si>
   <si>
-    <t>https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/9.PNG</t>
-  </si>
-  <si>
     <t>Introduction: "G" + Flag</t>
   </si>
   <si>
-    <t>https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/11.PNG</t>
-  </si>
-  <si>
     <t>Pulse Remembrance Day</t>
   </si>
   <si>
     <t>Queer History in Germany</t>
   </si>
   <si>
-    <t>https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/13.PNG</t>
-  </si>
-  <si>
     <t>Introduction: "B" + Flag</t>
   </si>
   <si>
-    <t>https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/14.PNG</t>
-  </si>
-  <si>
     <t>Pronouns and the usage in Microsoft products</t>
   </si>
   <si>
-    <t>https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/15.PNG</t>
-  </si>
-  <si>
     <t>Give with BING</t>
   </si>
   <si>
     <t>Introduction: "T" + Flag</t>
   </si>
   <si>
-    <t>https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/17.PNG</t>
-  </si>
-  <si>
-    <t>https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/18.PNG</t>
-  </si>
-  <si>
     <t>Introduction: "Q" + Flag</t>
   </si>
   <si>
-    <t>https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/19.PNG</t>
-  </si>
-  <si>
-    <t>https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/20.PNG</t>
-  </si>
-  <si>
     <t>Inclusive Microsoft products</t>
   </si>
   <si>
@@ -318,6 +282,96 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/nschreder/powerapppridemonthcalendar/main/Images/30.jpg</t>
+  </si>
+  <si>
+    <t>6/1/2022</t>
+  </si>
+  <si>
+    <t>6/2/2022</t>
+  </si>
+  <si>
+    <t>6/3/2022</t>
+  </si>
+  <si>
+    <t>6/4/2022</t>
+  </si>
+  <si>
+    <t>6/5/2022</t>
+  </si>
+  <si>
+    <t>6/6/2022</t>
+  </si>
+  <si>
+    <t>6/7/2022</t>
+  </si>
+  <si>
+    <t>6/8/2022</t>
+  </si>
+  <si>
+    <t>6/9/2022</t>
+  </si>
+  <si>
+    <t>6/10/2022</t>
+  </si>
+  <si>
+    <t>6/11/2022</t>
+  </si>
+  <si>
+    <t>6/12/2022</t>
+  </si>
+  <si>
+    <t>6/13/2022</t>
+  </si>
+  <si>
+    <t>6/14/2022</t>
+  </si>
+  <si>
+    <t>6/15/2022</t>
+  </si>
+  <si>
+    <t>6/16/2022</t>
+  </si>
+  <si>
+    <t>6/17/2022</t>
+  </si>
+  <si>
+    <t>6/18/2022</t>
+  </si>
+  <si>
+    <t>6/19/2022</t>
+  </si>
+  <si>
+    <t>6/20/2022</t>
+  </si>
+  <si>
+    <t>6/21/2022</t>
+  </si>
+  <si>
+    <t>6/22/2022</t>
+  </si>
+  <si>
+    <t>6/23/2022</t>
+  </si>
+  <si>
+    <t>6/24/2022</t>
+  </si>
+  <si>
+    <t>6/25/2022</t>
+  </si>
+  <si>
+    <t>6/26/2022</t>
+  </si>
+  <si>
+    <t>6/27/2022</t>
+  </si>
+  <si>
+    <t>6/28/2022</t>
+  </si>
+  <si>
+    <t>6/29/2022</t>
+  </si>
+  <si>
+    <t>6/30/2022</t>
   </si>
 </sst>
 </file>
@@ -362,11 +416,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -374,10 +429,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -397,8 +452,8 @@
   <autoFilter ref="A1:F31" xr:uid="{D3E8D18B-4191-4502-9336-B9AEB81A25E1}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{67E84B92-21A1-40A3-A103-813AB022D99D}" name="Title"/>
-    <tableColumn id="2" xr3:uid="{7803FAA7-E45D-4D08-8307-FBA765413B99}" name="Day" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{F595F759-5B00-4446-8BB4-2E9B3DE4A32C}" name="Type" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{7803FAA7-E45D-4D08-8307-FBA765413B99}" name="Day" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{F595F759-5B00-4446-8BB4-2E9B3DE4A32C}" name="Type" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{05BEFA07-045A-4108-8181-BC496093EEEC}" name="Content" dataCellStyle="Hyperlink"/>
     <tableColumn id="6" xr3:uid="{EB19E4AA-3D6E-40A6-B66D-1812E242883D}" name="Link" dataCellStyle="Hyperlink"/>
     <tableColumn id="7" xr3:uid="{DDE42BE4-FCE9-4CDC-AB68-A3621F070D46}" name="Thumbnail" dataCellStyle="Hyperlink"/>
@@ -722,12 +777,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="36.53125" customWidth="1"/>
-    <col min="2" max="2" width="12.73046875" customWidth="1"/>
-    <col min="3" max="3" width="7.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.73046875" customWidth="1"/>
-    <col min="5" max="5" width="17.796875" customWidth="1"/>
-    <col min="6" max="6" width="89.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="214.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -754,692 +809,558 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
-        <v>44621</v>
+      <c r="B2" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="2">
-        <v>44622</v>
+        <v>44</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2">
-        <v>44623</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2">
-        <v>44624</v>
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2">
-        <v>44625</v>
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2">
-        <v>44623</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2">
-        <v>44627</v>
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2">
-        <v>44628</v>
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2">
-        <v>44629</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="2">
-        <v>44630</v>
+        <v>45</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2">
-        <v>44631</v>
+        <v>15</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2">
-        <v>44632</v>
+        <v>16</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>75</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2">
-        <v>44633</v>
+        <v>17</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="2">
-        <v>44634</v>
+        <v>18</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="2">
-        <v>44635</v>
+        <v>19</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="2">
-        <v>44633</v>
+        <v>20</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>79</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2">
-        <v>44637</v>
+        <v>21</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>80</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="2">
-        <v>44638</v>
+        <v>48</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>81</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="2">
-        <v>44639</v>
+        <v>22</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>82</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="2">
-        <v>44640</v>
+        <v>50</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="2">
-        <v>44641</v>
+        <v>23</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="2">
-        <v>44642</v>
+        <v>24</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="2">
-        <v>44643</v>
+        <v>25</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="2">
-        <v>44644</v>
+        <v>26</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="2">
-        <v>44645</v>
+        <v>35</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="2">
-        <v>44643</v>
+        <v>27</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="2">
-        <v>44647</v>
+        <v>28</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="2">
-        <v>44648</v>
+        <v>29</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="2">
-        <v>44649</v>
+        <v>30</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="2">
-        <v>44650</v>
+        <v>34</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F31" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{4C139AD8-D4C1-4988-A313-F84525B2A4E8}"/>
-    <hyperlink ref="E4" r:id="rId2" location=":~:text=102%20countries%20around%20the%20world%20host%20some%20form,Saint%20Lucia%20and%20Bosnia%20and%20Herzegovina%20in%202019%29%3B" xr:uid="{761B069A-D5B5-41CE-866E-24A299AD57D6}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{93D4755F-7AD8-4E39-9A53-26AC0C825751}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{1C8214ED-8C55-4E41-B46C-D8692319FDF2}"/>
-    <hyperlink ref="E7" r:id="rId5" xr:uid="{B3DF4949-E759-4050-B097-51FBE402D46D}"/>
-    <hyperlink ref="E8" r:id="rId6" xr:uid="{DC1C1D8E-E833-416A-A65F-F0A31726BA39}"/>
-    <hyperlink ref="E9" r:id="rId7" xr:uid="{94A6382F-7227-4E3D-B61D-FE95F9BDC165}"/>
-    <hyperlink ref="E10" r:id="rId8" xr:uid="{0CFF751E-BE17-4560-8B85-61644B42CC11}"/>
-    <hyperlink ref="E12" r:id="rId9" xr:uid="{0137BE8F-CA59-42BF-BC2D-A6F69C0DD7E1}"/>
-    <hyperlink ref="E13" r:id="rId10" xr:uid="{949C88E3-8025-46F4-9749-AD5281AD1671}"/>
-    <hyperlink ref="E14" r:id="rId11" xr:uid="{56BBF8DD-0704-4B0C-9FEA-D260D24A4CCC}"/>
-    <hyperlink ref="E15" r:id="rId12" xr:uid="{90ED9381-10D8-4013-AA13-214120896EF5}"/>
-    <hyperlink ref="E16" r:id="rId13" xr:uid="{D93A9E12-B501-4795-9D81-DBFFBCD4BD0B}"/>
-    <hyperlink ref="E17" r:id="rId14" xr:uid="{C19848BB-E6A6-4878-B9E5-2FB94631D9A7}"/>
-    <hyperlink ref="E18" r:id="rId15" xr:uid="{CDBDE324-080D-42E8-B866-9F2C9763528D}"/>
-    <hyperlink ref="E19" r:id="rId16" xr:uid="{FFAFC038-E24E-4C32-8E60-7FBDDB1AE3A1}"/>
-    <hyperlink ref="E20" r:id="rId17" xr:uid="{E72790E3-D9B2-4BF3-90BB-116F2F3AD597}"/>
-    <hyperlink ref="E21" r:id="rId18" location="Deutschland" xr:uid="{2FFF4C75-A168-4D4D-A399-90551C36A9CA}"/>
-    <hyperlink ref="E24" r:id="rId19" xr:uid="{5A044E8D-27D7-4017-9B48-56F5DB9F6DC7}"/>
-    <hyperlink ref="E27" r:id="rId20" location=":~:text=Einen%20HIV%2DTest%20kann%20man,Hause%20auf%20HIV%20zu%20testen." xr:uid="{85D8D722-7D34-4013-B3DD-86B8A5B14142}"/>
-    <hyperlink ref="E30" r:id="rId21" xr:uid="{ABC8DD59-EAEE-4BA2-BFE5-4BBBCBD2C2E2}"/>
-    <hyperlink ref="E31" r:id="rId22" xr:uid="{5C7B62EB-47F1-4BEE-9306-96AEA9E46AA6}"/>
-    <hyperlink ref="E3" r:id="rId23" location=":~:text=%20The%2025%20Best%20LGBTQ%20Movies%20to%20Watch,Your%20Name%20%282017%29%2017%20Carol%20%282015%29%20More%20?msclkid=02b68a09cf9a11eca9b7a2bacd74c6f8" xr:uid="{8F1C3DEE-769C-4F20-A18E-0DB905D3D23B}"/>
-    <hyperlink ref="D4" r:id="rId24" xr:uid="{0633D38B-FBE2-458D-8687-763F20BC9E11}"/>
-    <hyperlink ref="D5" r:id="rId25" xr:uid="{920BD423-D595-4C7A-99DB-4ED859EC3FAC}"/>
-    <hyperlink ref="D6:D21" r:id="rId26" display="https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/4.PNG" xr:uid="{00AB9B79-9338-431B-80CB-AE920F339733}"/>
-    <hyperlink ref="D6" r:id="rId27" xr:uid="{33368F95-0B58-4052-9078-0F0880E8AA8A}"/>
-    <hyperlink ref="D7" r:id="rId28" xr:uid="{C6B9B43D-9101-4DA4-8A03-18328DDCDC79}"/>
-    <hyperlink ref="D8" r:id="rId29" xr:uid="{D7591158-1D81-4206-8A99-880F179C40CD}"/>
-    <hyperlink ref="D9" r:id="rId30" xr:uid="{3543EA17-9DB0-4B4B-B533-0B4270369479}"/>
-    <hyperlink ref="D10" r:id="rId31" xr:uid="{6A0C6A41-8F37-4F9F-8854-ED8BA56D39FF}"/>
-    <hyperlink ref="D11" r:id="rId32" xr:uid="{4047D296-7046-41FF-8C70-E8754B345525}"/>
-    <hyperlink ref="D12" r:id="rId33" xr:uid="{EA19EE3D-2B46-4D2F-B99F-055EF228B96D}"/>
-    <hyperlink ref="D13" r:id="rId34" xr:uid="{FBDD1E44-FBD9-423E-A4FB-BA3B5729AD4A}"/>
-    <hyperlink ref="D14" r:id="rId35" xr:uid="{9F000CBB-BC79-42F2-ACB7-B48FE18908D1}"/>
-    <hyperlink ref="D15" r:id="rId36" xr:uid="{77118C5C-C7B7-4E3D-B14A-D94DD0209DC0}"/>
-    <hyperlink ref="D16" r:id="rId37" xr:uid="{8AC754FD-A451-4F16-BCEA-CAAEA7D15EA0}"/>
-    <hyperlink ref="D17" r:id="rId38" xr:uid="{A1EF5952-9529-4863-8A07-6E64CCDE5CCD}"/>
-    <hyperlink ref="D18" r:id="rId39" xr:uid="{04858494-350B-4C92-9D80-A3FE6DA65972}"/>
-    <hyperlink ref="D19" r:id="rId40" xr:uid="{C0853E02-2826-4564-BD0F-4EEFA80854F6}"/>
-    <hyperlink ref="D20" r:id="rId41" xr:uid="{1804EA40-BAEA-496B-97AE-F4F4290ABD30}"/>
-    <hyperlink ref="D21" r:id="rId42" xr:uid="{7E80A043-67B1-474C-9133-34EEFB1CD3BD}"/>
-    <hyperlink ref="D22" r:id="rId43" xr:uid="{2721A29C-AA92-4935-B6F5-A5FAF43D3E35}"/>
-    <hyperlink ref="D23" r:id="rId44" xr:uid="{C52DA232-5493-4AAB-B679-0BF6D95652C2}"/>
-    <hyperlink ref="D24" r:id="rId45" xr:uid="{7BEB2861-9DA9-4D8D-815F-31E2C370CEB5}"/>
-    <hyperlink ref="D25" r:id="rId46" xr:uid="{EF2F18D1-737A-4F09-B8D9-74C32CC689C0}"/>
-    <hyperlink ref="D26" r:id="rId47" xr:uid="{C348B57C-2050-455C-BA73-40AD7AB18C4C}"/>
-    <hyperlink ref="D27" r:id="rId48" xr:uid="{E29DABD4-59C9-40E9-B552-AA1F74F91E0C}"/>
-    <hyperlink ref="D28" r:id="rId49" xr:uid="{948A40A0-DC3F-4658-9609-A18612FEAA12}"/>
-    <hyperlink ref="D29" r:id="rId50" xr:uid="{2CE8DA05-04A9-47A6-A885-354D5A74E7F8}"/>
-    <hyperlink ref="D30" r:id="rId51" xr:uid="{450300FF-8542-403B-AAF2-C3D3231B598C}"/>
-    <hyperlink ref="D31" r:id="rId52" xr:uid="{4111B2CB-BC57-4119-B45C-3E1C7EAB67F9}"/>
-    <hyperlink ref="D2" r:id="rId53" xr:uid="{89C1855B-BB31-4B17-8355-3579B9DD684F}"/>
-    <hyperlink ref="D3" r:id="rId54" xr:uid="{21975645-24AF-45F0-AB59-3634DCD48056}"/>
-    <hyperlink ref="F4" r:id="rId55" xr:uid="{496E7F88-96B1-4147-B43D-4D7491F56D5F}"/>
-    <hyperlink ref="F5" r:id="rId56" xr:uid="{11D40297-07CE-475A-B67D-8B14E6762E8E}"/>
-    <hyperlink ref="F6:F21" r:id="rId57" display="https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/4.PNG" xr:uid="{724BF000-2DE3-4FC2-9FD3-ACB0ABD03298}"/>
-    <hyperlink ref="F6" r:id="rId58" xr:uid="{41D7D1FB-37BA-4CD3-BC65-7CC0D65C8A4A}"/>
-    <hyperlink ref="F7" r:id="rId59" xr:uid="{DE37D346-189D-4D23-B6E9-D380217D912E}"/>
-    <hyperlink ref="F8" r:id="rId60" xr:uid="{B45D774C-C79D-4C2E-8050-71A8713F4736}"/>
-    <hyperlink ref="F9" r:id="rId61" xr:uid="{FA0D1F5F-5E14-45B6-B9AF-10045E849D46}"/>
-    <hyperlink ref="F10" r:id="rId62" xr:uid="{952112B5-FDD1-461F-B2CC-E29C3C2BB15C}"/>
-    <hyperlink ref="F11" r:id="rId63" xr:uid="{C954956B-9BB8-4E0A-804A-F00E1062B564}"/>
-    <hyperlink ref="F12" r:id="rId64" xr:uid="{79BF186B-AD69-429D-AF4E-C7FB78BEC4C6}"/>
-    <hyperlink ref="F13" r:id="rId65" xr:uid="{6E88D440-DF3D-4DB3-A441-17F4F4FE62E5}"/>
-    <hyperlink ref="F14" r:id="rId66" xr:uid="{1DBC9D38-D936-44A4-AE08-7B2048329155}"/>
-    <hyperlink ref="F15" r:id="rId67" xr:uid="{2B4522B2-94A8-4888-933F-68612D3661E2}"/>
-    <hyperlink ref="F16" r:id="rId68" xr:uid="{DDE55F1A-86B7-4163-A36A-13CD61E19E1C}"/>
-    <hyperlink ref="F17" r:id="rId69" xr:uid="{8E70B8C3-58B6-4650-9BEF-E49B7661F464}"/>
-    <hyperlink ref="F18" r:id="rId70" xr:uid="{EB77B22F-543A-49FF-9880-D7628CB3440B}"/>
-    <hyperlink ref="F19" r:id="rId71" xr:uid="{F27A2621-4AD6-489A-B2DB-E477568C009D}"/>
-    <hyperlink ref="F20" r:id="rId72" xr:uid="{C60C135F-50F1-4CD7-8F6B-E7B3C8E731A1}"/>
-    <hyperlink ref="F21" r:id="rId73" xr:uid="{DA3B959B-B2A3-4E1E-A549-042A82304864}"/>
-    <hyperlink ref="F22" r:id="rId74" xr:uid="{986F8DE0-FDBA-425C-ADF4-4BCD64952026}"/>
-    <hyperlink ref="F23" r:id="rId75" xr:uid="{0D51F3D4-D8EA-4F04-961B-2A3F38A4F04D}"/>
-    <hyperlink ref="F24" r:id="rId76" xr:uid="{498CFB01-B8D1-493B-BCF2-627138CE1F1F}"/>
-    <hyperlink ref="F25" r:id="rId77" xr:uid="{79643163-43FB-4B83-9261-E0D3599A0BB2}"/>
-    <hyperlink ref="F26" r:id="rId78" xr:uid="{4833A1D0-F34B-40D6-A990-ADA622CA1618}"/>
-    <hyperlink ref="F27" r:id="rId79" xr:uid="{23AF4A96-B7C6-438D-9EAD-FD63B3F78D80}"/>
-    <hyperlink ref="F28" r:id="rId80" xr:uid="{6CC19B28-639B-4315-A872-2E3AA071D810}"/>
-    <hyperlink ref="F29" r:id="rId81" xr:uid="{6B08D457-EFDE-45AF-85C6-9F05EFF3008D}"/>
-    <hyperlink ref="F30" r:id="rId82" xr:uid="{E95D5EE8-054E-42BC-A09E-D14A4ACD1C03}"/>
-    <hyperlink ref="F31" r:id="rId83" xr:uid="{86E45AF7-691E-4C51-A1B7-0CD9A35A5D21}"/>
-    <hyperlink ref="F2" r:id="rId84" xr:uid="{AF722A97-299F-4BCB-89DF-56062DCEF2C7}"/>
-    <hyperlink ref="F3" r:id="rId85" xr:uid="{6397A8C6-ED72-4EE5-AFC2-F82C8B9CC7C7}"/>
+    <hyperlink ref="E4" r:id="rId1" location=":~:text=102%20countries%20around%20the%20world%20host%20some%20form,Saint%20Lucia%20and%20Bosnia%20and%20Herzegovina%20in%202019%29%3B" xr:uid="{761B069A-D5B5-41CE-866E-24A299AD57D6}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{B3DF4949-E759-4050-B097-51FBE402D46D}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{DC1C1D8E-E833-416A-A65F-F0A31726BA39}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{94A6382F-7227-4E3D-B61D-FE95F9BDC165}"/>
+    <hyperlink ref="E13" r:id="rId5" xr:uid="{949C88E3-8025-46F4-9749-AD5281AD1671}"/>
+    <hyperlink ref="E17" r:id="rId6" xr:uid="{C19848BB-E6A6-4878-B9E5-2FB94631D9A7}"/>
+    <hyperlink ref="E21" r:id="rId7" location="Deutschland" xr:uid="{2FFF4C75-A168-4D4D-A399-90551C36A9CA}"/>
+    <hyperlink ref="E24" r:id="rId8" xr:uid="{5A044E8D-27D7-4017-9B48-56F5DB9F6DC7}"/>
+    <hyperlink ref="E27" r:id="rId9" location=":~:text=Einen%20HIV%2DTest%20kann%20man,Hause%20auf%20HIV%20zu%20testen." xr:uid="{85D8D722-7D34-4013-B3DD-86B8A5B14142}"/>
+    <hyperlink ref="E30" r:id="rId10" xr:uid="{ABC8DD59-EAEE-4BA2-BFE5-4BBBCBD2C2E2}"/>
+    <hyperlink ref="E31" r:id="rId11" xr:uid="{5C7B62EB-47F1-4BEE-9306-96AEA9E46AA6}"/>
+    <hyperlink ref="E3" r:id="rId12" location=":~:text=%20The%2025%20Best%20LGBTQ%20Movies%20to%20Watch,Your%20Name%20%282017%29%2017%20Carol%20%282015%29%20More%20?msclkid=02b68a09cf9a11eca9b7a2bacd74c6f8" xr:uid="{8F1C3DEE-769C-4F20-A18E-0DB905D3D23B}"/>
+    <hyperlink ref="D4" r:id="rId13" xr:uid="{0633D38B-FBE2-458D-8687-763F20BC9E11}"/>
+    <hyperlink ref="D5" r:id="rId14" xr:uid="{920BD423-D595-4C7A-99DB-4ED859EC3FAC}"/>
+    <hyperlink ref="D6:D21" r:id="rId15" display="https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/4.PNG" xr:uid="{00AB9B79-9338-431B-80CB-AE920F339733}"/>
+    <hyperlink ref="D6" r:id="rId16" xr:uid="{33368F95-0B58-4052-9078-0F0880E8AA8A}"/>
+    <hyperlink ref="D7" r:id="rId17" xr:uid="{C6B9B43D-9101-4DA4-8A03-18328DDCDC79}"/>
+    <hyperlink ref="D8" r:id="rId18" xr:uid="{D7591158-1D81-4206-8A99-880F179C40CD}"/>
+    <hyperlink ref="D9" r:id="rId19" xr:uid="{3543EA17-9DB0-4B4B-B533-0B4270369479}"/>
+    <hyperlink ref="D10" r:id="rId20" xr:uid="{6A0C6A41-8F37-4F9F-8854-ED8BA56D39FF}"/>
+    <hyperlink ref="D11" r:id="rId21" xr:uid="{4047D296-7046-41FF-8C70-E8754B345525}"/>
+    <hyperlink ref="D12" r:id="rId22" xr:uid="{EA19EE3D-2B46-4D2F-B99F-055EF228B96D}"/>
+    <hyperlink ref="D13" r:id="rId23" xr:uid="{FBDD1E44-FBD9-423E-A4FB-BA3B5729AD4A}"/>
+    <hyperlink ref="D14" r:id="rId24" xr:uid="{9F000CBB-BC79-42F2-ACB7-B48FE18908D1}"/>
+    <hyperlink ref="D15" r:id="rId25" xr:uid="{77118C5C-C7B7-4E3D-B14A-D94DD0209DC0}"/>
+    <hyperlink ref="D16" r:id="rId26" xr:uid="{8AC754FD-A451-4F16-BCEA-CAAEA7D15EA0}"/>
+    <hyperlink ref="D17" r:id="rId27" xr:uid="{A1EF5952-9529-4863-8A07-6E64CCDE5CCD}"/>
+    <hyperlink ref="D18" r:id="rId28" xr:uid="{04858494-350B-4C92-9D80-A3FE6DA65972}"/>
+    <hyperlink ref="D19" r:id="rId29" xr:uid="{C0853E02-2826-4564-BD0F-4EEFA80854F6}"/>
+    <hyperlink ref="D20" r:id="rId30" xr:uid="{1804EA40-BAEA-496B-97AE-F4F4290ABD30}"/>
+    <hyperlink ref="D21" r:id="rId31" xr:uid="{7E80A043-67B1-474C-9133-34EEFB1CD3BD}"/>
+    <hyperlink ref="D22" r:id="rId32" xr:uid="{2721A29C-AA92-4935-B6F5-A5FAF43D3E35}"/>
+    <hyperlink ref="D23" r:id="rId33" xr:uid="{C52DA232-5493-4AAB-B679-0BF6D95652C2}"/>
+    <hyperlink ref="D24" r:id="rId34" xr:uid="{7BEB2861-9DA9-4D8D-815F-31E2C370CEB5}"/>
+    <hyperlink ref="D25" r:id="rId35" xr:uid="{EF2F18D1-737A-4F09-B8D9-74C32CC689C0}"/>
+    <hyperlink ref="D26" r:id="rId36" xr:uid="{C348B57C-2050-455C-BA73-40AD7AB18C4C}"/>
+    <hyperlink ref="D27" r:id="rId37" xr:uid="{E29DABD4-59C9-40E9-B552-AA1F74F91E0C}"/>
+    <hyperlink ref="D28" r:id="rId38" xr:uid="{948A40A0-DC3F-4658-9609-A18612FEAA12}"/>
+    <hyperlink ref="D29" r:id="rId39" xr:uid="{2CE8DA05-04A9-47A6-A885-354D5A74E7F8}"/>
+    <hyperlink ref="D30" r:id="rId40" xr:uid="{450300FF-8542-403B-AAF2-C3D3231B598C}"/>
+    <hyperlink ref="D31" r:id="rId41" xr:uid="{4111B2CB-BC57-4119-B45C-3E1C7EAB67F9}"/>
+    <hyperlink ref="D2" r:id="rId42" xr:uid="{89C1855B-BB31-4B17-8355-3579B9DD684F}"/>
+    <hyperlink ref="D3" r:id="rId43" xr:uid="{21975645-24AF-45F0-AB59-3634DCD48056}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId86"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId44"/>
   <tableParts count="1">
-    <tablePart r:id="rId87"/>
+    <tablePart r:id="rId45"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1481,17 +1402,17 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1503,80 +1424,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Owner xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Math_Settings xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <TeamsChannelId xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <NotebookType xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Students xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Student_Groups xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Has_Leaders_Only_SectionGroup xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AppVersion xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <CultureName xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Distribution_Groups xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Templates xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Members xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Members>
-    <Invited_Teachers xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Invited_Students xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <FolderType xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Teachers xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Leaders xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Leaders>
-    <Member_Groups xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Member_Groups>
-    <Invited_Members xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <LMS_Mappings xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Invited_Leaders xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2096,21 +1949,86 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Owner xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Math_Settings xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <TeamsChannelId xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <NotebookType xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Students xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Student_Groups xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Has_Leaders_Only_SectionGroup xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AppVersion xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <CultureName xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Distribution_Groups xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Templates xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Members xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Members>
+    <Invited_Teachers xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Invited_Students xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <FolderType xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Teachers xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Leaders xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Leaders>
+    <Member_Groups xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Member_Groups>
+    <Invited_Members xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <LMS_Mappings xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Invited_Leaders xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0A4B2C-23E9-4600-B233-DC08F6478FEB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB5A595-6ECE-49F1-AADE-0218D6C158AD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2136,9 +2054,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB5A595-6ECE-49F1-AADE-0218D6C158AD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0A4B2C-23E9-4600-B233-DC08F6478FEB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Pride Month Calendar.xlsx
+++ b/Pride Month Calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicoschreder\Development\powerapppridemonthcalendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF13E653-9E91-417A-A658-9369557B6841}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B893E9-41D7-4FA6-96FD-B17764ABB0FA}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{36ACBFC6-48A0-4CD7-B10E-9675CF43A6CD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="113">
   <si>
     <t>Title</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>6/30/2022</t>
+  </si>
+  <si>
+    <t>https://www.gq-magazin.de/lifestyle/artikel/lgbtq-podcasts-das-sind-die-5-besten-podcasts-fuer-die-queer-community</t>
   </si>
 </sst>
 </file>
@@ -429,10 +432,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -452,8 +455,8 @@
   <autoFilter ref="A1:F31" xr:uid="{D3E8D18B-4191-4502-9336-B9AEB81A25E1}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{67E84B92-21A1-40A3-A103-813AB022D99D}" name="Title"/>
-    <tableColumn id="2" xr3:uid="{7803FAA7-E45D-4D08-8307-FBA765413B99}" name="Day" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{F595F759-5B00-4446-8BB4-2E9B3DE4A32C}" name="Type" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{7803FAA7-E45D-4D08-8307-FBA765413B99}" name="Day" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{F595F759-5B00-4446-8BB4-2E9B3DE4A32C}" name="Type" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{05BEFA07-045A-4108-8181-BC496093EEEC}" name="Content" dataCellStyle="Hyperlink"/>
     <tableColumn id="6" xr3:uid="{EB19E4AA-3D6E-40A6-B66D-1812E242883D}" name="Link" dataCellStyle="Hyperlink"/>
     <tableColumn id="7" xr3:uid="{DDE42BE4-FCE9-4CDC-AB68-A3621F070D46}" name="Thumbnail" dataCellStyle="Hyperlink"/>
@@ -772,7 +775,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B31"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -781,7 +784,7 @@
     <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="79.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="214.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="93.59765625" customWidth="1"/>
     <col min="6" max="6" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -818,7 +821,9 @@
       <c r="D2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -870,7 +875,9 @@
       <c r="D5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -886,7 +893,9 @@
       <c r="D6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -956,7 +965,9 @@
       <c r="D10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -990,7 +1001,9 @@
       <c r="D12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -1024,7 +1037,9 @@
       <c r="D14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -1040,7 +1055,9 @@
       <c r="D15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -1056,7 +1073,9 @@
       <c r="D16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -1090,7 +1109,9 @@
       <c r="D18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -1106,7 +1127,9 @@
       <c r="D19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -1122,7 +1145,9 @@
       <c r="D20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -1156,7 +1181,9 @@
       <c r="D22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -1172,7 +1199,9 @@
       <c r="D23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -1206,7 +1235,9 @@
       <c r="D25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -1222,7 +1253,9 @@
       <c r="D26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -1256,7 +1289,9 @@
       <c r="D28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -1272,7 +1307,9 @@
       <c r="D29" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -1356,11 +1393,26 @@
     <hyperlink ref="D31" r:id="rId41" xr:uid="{4111B2CB-BC57-4119-B45C-3E1C7EAB67F9}"/>
     <hyperlink ref="D2" r:id="rId42" xr:uid="{89C1855B-BB31-4B17-8355-3579B9DD684F}"/>
     <hyperlink ref="D3" r:id="rId43" xr:uid="{21975645-24AF-45F0-AB59-3634DCD48056}"/>
+    <hyperlink ref="E19" r:id="rId44" xr:uid="{C3C6A476-7F01-4A06-9559-E68558BE8F9A}"/>
+    <hyperlink ref="E2" r:id="rId45" xr:uid="{A47A36F1-87AC-4E6F-9E63-ED4815912502}"/>
+    <hyperlink ref="E5" r:id="rId46" xr:uid="{9167F096-5033-4816-A02A-B90D4481064B}"/>
+    <hyperlink ref="E6" r:id="rId47" display="https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/4.PNG" xr:uid="{7EF89C07-2F3C-404C-938C-09FBD13C98BE}"/>
+    <hyperlink ref="E10" r:id="rId48" display="https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/4.PNG" xr:uid="{4228C20F-B469-4644-8A89-919AD101F0E1}"/>
+    <hyperlink ref="E12" r:id="rId49" display="https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/4.PNG" xr:uid="{59BEE061-B3D1-4183-938F-89523BCFDCC0}"/>
+    <hyperlink ref="E14:E16" r:id="rId50" display="https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/4.PNG" xr:uid="{3A03E4F7-0C21-4947-B04E-21B9EDA8CAFC}"/>
+    <hyperlink ref="E18" r:id="rId51" display="https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/4.PNG" xr:uid="{A35772B9-7641-4B2C-A937-C51C0243159A}"/>
+    <hyperlink ref="E20" r:id="rId52" display="https://github.com/nschreder/powerappadventcalendar/raw/main/Content/German/4.PNG" xr:uid="{9AE8488A-8DDE-43D4-9296-A4E0AADE40AD}"/>
+    <hyperlink ref="E22" r:id="rId53" xr:uid="{16E30DAB-884A-4293-A4B8-5E0BB361A5EF}"/>
+    <hyperlink ref="E23" r:id="rId54" xr:uid="{ECCB8BD5-5698-42F3-B004-C5D63774B299}"/>
+    <hyperlink ref="E25" r:id="rId55" xr:uid="{7710186E-BC95-45C2-8D06-610DC89ABAE0}"/>
+    <hyperlink ref="E26" r:id="rId56" xr:uid="{2D158E92-419D-4953-A264-86C0B36F68AF}"/>
+    <hyperlink ref="E28" r:id="rId57" xr:uid="{0B00E722-EA42-406E-A285-0EE9593BAFF5}"/>
+    <hyperlink ref="E29" r:id="rId58" xr:uid="{DA66CB0F-9964-404B-AB32-C21208BCFC1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId44"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId59"/>
   <tableParts count="1">
-    <tablePart r:id="rId45"/>
+    <tablePart r:id="rId60"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1433,6 +1485,83 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Owner xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Math_Settings xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <TeamsChannelId xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <NotebookType xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Students xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Student_Groups xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Has_Leaders_Only_SectionGroup xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AppVersion xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <CultureName xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Distribution_Groups xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Templates xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Members xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Members>
+    <Invited_Teachers xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Invited_Students xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <FolderType xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Teachers xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Leaders xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Leaders>
+    <Member_Groups xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Member_Groups>
+    <Invited_Members xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <LMS_Mappings xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Invited_Leaders xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100777DB4BD9E953546B515946AF28F7DA9" ma:contentTypeVersion="42" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c0da4c0e7967ab90613fc23f763a5156">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="7011d684-d841-471c-9031-84b0b301070d" xmlns:ns4="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="931b6df896159ff5736adb0b1c9a3ae0" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1948,83 +2077,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Owner xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Math_Settings xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <TeamsChannelId xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <NotebookType xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Students xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Student_Groups xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Has_Leaders_Only_SectionGroup xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AppVersion xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <CultureName xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Distribution_Groups xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Templates xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Members xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Members>
-    <Invited_Teachers xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Invited_Students xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <FolderType xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Teachers xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Leaders xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Leaders>
-    <Member_Groups xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Member_Groups>
-    <Invited_Members xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <LMS_Mappings xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Invited_Leaders xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB5A595-6ECE-49F1-AADE-0218D6C158AD}">
   <ds:schemaRefs>
@@ -2034,6 +2086,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0A4B2C-23E9-4600-B233-DC08F6478FEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A57166B1-F307-4C58-BB14-04F71658D735}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2053,17 +2116,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0A4B2C-23E9-4600-B233-DC08F6478FEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
